--- a/business_data.xlsx
+++ b/business_data.xlsx
@@ -395,7 +395,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -518,24 +518,49 @@
           <t>2025-08-03</t>
         </is>
       </c>
-      <c r="D4" s="5" t="inlineStr">
-        <is>
-          <t>1239</t>
-        </is>
-      </c>
-      <c r="E4" s="5" t="inlineStr">
-        <is>
-          <t>4455787910</t>
-        </is>
-      </c>
-      <c r="F4" s="5" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
+      <c r="D4" s="5" t="n">
+        <v>1239</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>4455787910</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>13</v>
       </c>
       <c r="G4" s="5" t="inlineStr">
         <is>
           <t>some</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="5" t="inlineStr">
+        <is>
+          <t>A4</t>
+        </is>
+      </c>
+      <c r="B5" s="5" t="inlineStr">
+        <is>
+          <t>ASD</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="inlineStr">
+        <is>
+          <t>2025-09-03</t>
+        </is>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>9675</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>987654321</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>12</v>
+      </c>
+      <c r="G5" s="5" t="inlineStr">
+        <is>
+          <t>another</t>
         </is>
       </c>
     </row>
@@ -588,7 +613,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -624,75 +649,430 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="5" t="inlineStr">
+      <c r="A2" t="inlineStr">
         <is>
           <t>2025-08-02</t>
         </is>
       </c>
-      <c r="B2" s="5" t="inlineStr">
-        <is>
-          <t>A1</t>
-        </is>
-      </c>
-      <c r="C2" s="5" t="inlineStr">
-        <is>
-          <t>Abs</t>
-        </is>
-      </c>
-      <c r="D2" s="5" t="inlineStr">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Abs</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>Present</t>
         </is>
       </c>
-      <c r="E2" s="5" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" s="5" t="inlineStr">
+      <c r="A3" t="inlineStr">
         <is>
           <t>2025-08-02</t>
         </is>
       </c>
-      <c r="B3" s="5" t="inlineStr">
+      <c r="B3" t="inlineStr">
         <is>
           <t>A2</t>
         </is>
       </c>
-      <c r="C3" s="5" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>ACc</t>
         </is>
       </c>
-      <c r="D3" s="5" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>Overtime</t>
         </is>
       </c>
-      <c r="E3" s="5" t="n">
+      <c r="E3" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="5" t="inlineStr">
+      <c r="A4" t="inlineStr">
         <is>
           <t>2025-08-02</t>
         </is>
       </c>
-      <c r="B4" s="5" t="inlineStr">
+      <c r="B4" t="inlineStr">
         <is>
           <t>A3</t>
         </is>
       </c>
-      <c r="C4" s="5" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>ACf</t>
         </is>
       </c>
-      <c r="D4" s="5" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>Leave</t>
         </is>
       </c>
-      <c r="E4" s="5" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2025-08-03</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Abs</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2025-08-04</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Abs</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2025-08-05</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Abs</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2025-08-06</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Abs</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Overtime</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2025-08-07</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Abs</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Half Day</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2025-08-08</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Abs</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Leave</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2025-08-09</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Abs</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Leave</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2025-08-10</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Abs</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Leave</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2025-08-11</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Abs</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Leave</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2025-08-12</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Abs</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Abs</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Overtime</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2025-08-14</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Abs</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Overtime</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2025-08-15</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Abs</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Overtime</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2025-08-16</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Abs</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Overtime</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2025-08-17</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Abs</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -965,66 +1345,66 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="5" t="inlineStr">
         <is>
           <t>2025-08-12</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" s="5" t="inlineStr">
         <is>
           <t>Test Item</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C2" s="5" t="inlineStr">
         <is>
           <t>test</t>
         </is>
       </c>
-      <c r="D2" t="n">
+      <c r="D2" s="5" t="n">
         <v>10</v>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="E2" s="5" t="inlineStr">
         <is>
           <t>AB</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="F2" s="5" t="n">
         <v>7044466345</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2" s="5" t="n">
         <v>15</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="5" t="inlineStr">
         <is>
           <t>2025-08-05</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" s="5" t="inlineStr">
         <is>
           <t>Test Item</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C3" s="5" t="inlineStr">
         <is>
           <t>test</t>
         </is>
       </c>
-      <c r="D3" t="n">
+      <c r="D3" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="E3" s="5" t="inlineStr">
         <is>
           <t>AB</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" s="5" t="inlineStr">
         <is>
           <t>7044466354</t>
         </is>
       </c>
-      <c r="G3" t="n">
+      <c r="G3" s="5" t="n">
         <v>20</v>
       </c>
     </row>
@@ -1075,42 +1455,42 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="5" t="inlineStr">
         <is>
           <t>Test Item</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" s="5" t="inlineStr">
         <is>
           <t>test</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="C2" s="5" t="n">
         <v>18</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2" s="5" t="n">
         <v>16.5</v>
       </c>
-      <c r="E2" t="inlineStr"/>
+      <c r="E2" s="5" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="5" t="inlineStr">
         <is>
           <t>Test Item 2</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" s="5" t="inlineStr">
         <is>
           <t>test</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C3" s="5" t="n">
         <v>10</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3" s="5" t="n">
         <v>10</v>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="E3" s="5" t="inlineStr">
         <is>
           <t>testing</t>
         </is>

--- a/business_data.xlsx
+++ b/business_data.xlsx
@@ -649,430 +649,430 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="5" t="inlineStr">
         <is>
           <t>2025-08-02</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" s="5" t="inlineStr">
         <is>
           <t>A1</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C2" s="5" t="inlineStr">
         <is>
           <t>Abs</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D2" s="5" t="inlineStr">
         <is>
           <t>Present</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr"/>
+      <c r="E2" s="5" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="5" t="inlineStr">
         <is>
           <t>2025-08-02</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" s="5" t="inlineStr">
         <is>
           <t>A2</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C3" s="5" t="inlineStr">
         <is>
           <t>ACc</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D3" s="5" t="inlineStr">
         <is>
           <t>Overtime</t>
         </is>
       </c>
-      <c r="E3" t="n">
+      <c r="E3" s="5" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" s="5" t="inlineStr">
         <is>
           <t>2025-08-02</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" s="5" t="inlineStr">
         <is>
           <t>A3</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C4" s="5" t="inlineStr">
         <is>
           <t>ACf</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D4" s="5" t="inlineStr">
         <is>
           <t>Leave</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr"/>
+      <c r="E4" s="5" t="inlineStr"/>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" s="5" t="inlineStr">
         <is>
           <t>2025-08-03</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" s="5" t="inlineStr">
         <is>
           <t>A1</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C5" s="5" t="inlineStr">
         <is>
           <t>Abs</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D5" s="5" t="inlineStr">
         <is>
           <t>Present</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr"/>
+      <c r="E5" s="5" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" s="5" t="inlineStr">
         <is>
           <t>2025-08-04</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" s="5" t="inlineStr">
         <is>
           <t>A1</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C6" s="5" t="inlineStr">
         <is>
           <t>Abs</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D6" s="5" t="inlineStr">
         <is>
           <t>Present</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr"/>
+      <c r="E6" s="5" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" s="5" t="inlineStr">
         <is>
           <t>2025-08-05</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" s="5" t="inlineStr">
         <is>
           <t>A1</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C7" s="5" t="inlineStr">
         <is>
           <t>Abs</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D7" s="5" t="inlineStr">
         <is>
           <t>Present</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr"/>
+      <c r="E7" s="5" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="A8" s="5" t="inlineStr">
         <is>
           <t>2025-08-06</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" s="5" t="inlineStr">
         <is>
           <t>A1</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C8" s="5" t="inlineStr">
         <is>
           <t>Abs</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D8" s="5" t="inlineStr">
         <is>
           <t>Overtime</t>
         </is>
       </c>
-      <c r="E8" t="n">
+      <c r="E8" s="5" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="A9" s="5" t="inlineStr">
         <is>
           <t>2025-08-07</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" s="5" t="inlineStr">
         <is>
           <t>A1</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="C9" s="5" t="inlineStr">
         <is>
           <t>Abs</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="D9" s="5" t="inlineStr">
         <is>
           <t>Half Day</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr"/>
+      <c r="E9" s="5" t="inlineStr"/>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" s="5" t="inlineStr">
         <is>
           <t>2025-08-08</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" s="5" t="inlineStr">
         <is>
           <t>A1</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="C10" s="5" t="inlineStr">
         <is>
           <t>Abs</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="D10" s="5" t="inlineStr">
         <is>
           <t>Leave</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr"/>
+      <c r="E10" s="5" t="inlineStr"/>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="A11" s="5" t="inlineStr">
         <is>
           <t>2025-08-09</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" s="5" t="inlineStr">
         <is>
           <t>A1</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="C11" s="5" t="inlineStr">
         <is>
           <t>Abs</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="D11" s="5" t="inlineStr">
         <is>
           <t>Leave</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr"/>
+      <c r="E11" s="5" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="5" t="inlineStr">
         <is>
           <t>2025-08-10</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" s="5" t="inlineStr">
         <is>
           <t>A1</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="C12" s="5" t="inlineStr">
         <is>
           <t>Abs</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="D12" s="5" t="inlineStr">
         <is>
           <t>Leave</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr"/>
+      <c r="E12" s="5" t="inlineStr"/>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="A13" s="5" t="inlineStr">
         <is>
           <t>2025-08-11</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" s="5" t="inlineStr">
         <is>
           <t>A1</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="C13" s="5" t="inlineStr">
         <is>
           <t>Abs</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="D13" s="5" t="inlineStr">
         <is>
           <t>Leave</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr"/>
+      <c r="E13" s="5" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="5" t="inlineStr">
         <is>
           <t>2025-08-12</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" s="5" t="inlineStr">
         <is>
           <t>A1</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="C14" s="5" t="inlineStr">
         <is>
           <t>Abs</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="D14" s="5" t="inlineStr">
         <is>
           <t>Present</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr"/>
+      <c r="E14" s="5" t="inlineStr"/>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
+      <c r="A15" s="5" t="inlineStr">
         <is>
           <t>2025-08-13</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" s="5" t="inlineStr">
         <is>
           <t>A1</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="C15" s="5" t="inlineStr">
         <is>
           <t>Abs</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="D15" s="5" t="inlineStr">
         <is>
           <t>Overtime</t>
         </is>
       </c>
-      <c r="E15" t="n">
+      <c r="E15" s="5" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A16" s="5" t="inlineStr">
         <is>
           <t>2025-08-14</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" s="5" t="inlineStr">
         <is>
           <t>A1</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="C16" s="5" t="inlineStr">
         <is>
           <t>Abs</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="D16" s="5" t="inlineStr">
         <is>
           <t>Overtime</t>
         </is>
       </c>
-      <c r="E16" t="n">
+      <c r="E16" s="5" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
+      <c r="A17" s="5" t="inlineStr">
         <is>
           <t>2025-08-15</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" s="5" t="inlineStr">
         <is>
           <t>A1</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="C17" s="5" t="inlineStr">
         <is>
           <t>Abs</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="D17" s="5" t="inlineStr">
         <is>
           <t>Overtime</t>
         </is>
       </c>
-      <c r="E17" t="n">
+      <c r="E17" s="5" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="5" t="inlineStr">
         <is>
           <t>2025-08-16</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" s="5" t="inlineStr">
         <is>
           <t>A1</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="C18" s="5" t="inlineStr">
         <is>
           <t>Abs</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="D18" s="5" t="inlineStr">
         <is>
           <t>Overtime</t>
         </is>
       </c>
-      <c r="E18" t="n">
+      <c r="E18" s="5" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
+      <c r="A19" s="5" t="inlineStr">
         <is>
           <t>2025-08-17</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" s="5" t="inlineStr">
         <is>
           <t>A1</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="C19" s="5" t="inlineStr">
         <is>
           <t>Abs</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="D19" s="5" t="inlineStr">
         <is>
           <t>Absent</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr"/>
+      <c r="E19" s="5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1170,7 +1170,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1286,6 +1286,266 @@
       </c>
       <c r="F4" s="5" t="n">
         <v>285</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="5" t="inlineStr">
+        <is>
+          <t>2025-08-24</t>
+        </is>
+      </c>
+      <c r="B5" s="5" t="inlineStr">
+        <is>
+          <t>Test Item</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>13</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>17</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="5" t="inlineStr">
+        <is>
+          <t>2025-08-25</t>
+        </is>
+      </c>
+      <c r="B6" s="5" t="inlineStr">
+        <is>
+          <t>Test Item</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>21</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>20</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="5" t="inlineStr">
+        <is>
+          <t>2025-08-26</t>
+        </is>
+      </c>
+      <c r="B7" s="5" t="inlineStr">
+        <is>
+          <t>Test Item</t>
+        </is>
+      </c>
+      <c r="C7" s="5" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="5" t="inlineStr">
+        <is>
+          <t>2025-08-26</t>
+        </is>
+      </c>
+      <c r="B8" s="5" t="inlineStr">
+        <is>
+          <t>Test Item 2</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>7</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="5" t="inlineStr">
+        <is>
+          <t>2025-08-25</t>
+        </is>
+      </c>
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>Test Item 2</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>23</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="5" t="inlineStr">
+        <is>
+          <t>2025-08-24</t>
+        </is>
+      </c>
+      <c r="B10" s="5" t="inlineStr">
+        <is>
+          <t>Test Item 2</t>
+        </is>
+      </c>
+      <c r="C10" s="5" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>32</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="5" t="inlineStr">
+        <is>
+          <t>2025-08-27</t>
+        </is>
+      </c>
+      <c r="B11" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Test Item </t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>21</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="5" t="inlineStr">
+        <is>
+          <t>2025-08-28</t>
+        </is>
+      </c>
+      <c r="B12" s="5" t="inlineStr">
+        <is>
+          <t>Test Item 3</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>52</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="5" t="inlineStr">
+        <is>
+          <t>2025-08-27</t>
+        </is>
+      </c>
+      <c r="B13" s="5" t="inlineStr">
+        <is>
+          <t>Test Item 3</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>50</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="5" t="inlineStr">
+        <is>
+          <t>2025-08-28</t>
+        </is>
+      </c>
+      <c r="B14" s="5" t="inlineStr">
+        <is>
+          <t>Test Item</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>15</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -1419,7 +1679,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1455,46 +1715,84 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="5" t="inlineStr">
+      <c r="A2" t="inlineStr">
         <is>
           <t>Test Item</t>
         </is>
       </c>
-      <c r="B2" s="5" t="inlineStr">
+      <c r="B2" t="inlineStr">
         <is>
           <t>test</t>
         </is>
       </c>
-      <c r="C2" s="5" t="n">
-        <v>18</v>
-      </c>
-      <c r="D2" s="5" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="E2" s="5" t="inlineStr"/>
+      <c r="C2" t="n">
+        <v>62</v>
+      </c>
+      <c r="D2" t="n">
+        <v>16.75</v>
+      </c>
+      <c r="E2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" s="5" t="inlineStr">
+      <c r="A3" t="inlineStr">
         <is>
           <t>Test Item 2</t>
         </is>
       </c>
-      <c r="B3" s="5" t="inlineStr">
+      <c r="B3" t="inlineStr">
         <is>
           <t>test</t>
         </is>
       </c>
-      <c r="C3" s="5" t="n">
+      <c r="C3" t="n">
+        <v>21</v>
+      </c>
+      <c r="D3" t="n">
+        <v>13.86</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>testing</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Test Item </t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
         <v>10</v>
       </c>
-      <c r="D3" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="E3" s="5" t="inlineStr">
-        <is>
-          <t>testing</t>
-        </is>
-      </c>
+      <c r="D4" t="n">
+        <v>21</v>
+      </c>
+      <c r="E4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Test Item 3</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>7</v>
+      </c>
+      <c r="D5" t="n">
+        <v>51.43</v>
+      </c>
+      <c r="E5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/business_data.xlsx
+++ b/business_data.xlsx
@@ -613,7 +613,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1073,6 +1073,29 @@
         </is>
       </c>
       <c r="E19" s="5" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="5" t="inlineStr">
+        <is>
+          <t>2025-08-18</t>
+        </is>
+      </c>
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>Abs</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="inlineStr">
+        <is>
+          <t>Leave</t>
+        </is>
+      </c>
+      <c r="E20" s="5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1170,7 +1193,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1546,6 +1569,32 @@
       </c>
       <c r="F14" s="5" t="n">
         <v>75</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="5" t="inlineStr">
+        <is>
+          <t>2025-08-14</t>
+        </is>
+      </c>
+      <c r="B15" s="5" t="inlineStr">
+        <is>
+          <t>test5</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>15</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -1559,7 +1608,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1605,66 +1654,97 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="5" t="inlineStr">
+      <c r="A2" t="inlineStr">
         <is>
           <t>2025-08-12</t>
         </is>
       </c>
-      <c r="B2" s="5" t="inlineStr">
+      <c r="B2" t="inlineStr">
         <is>
           <t>Test Item</t>
         </is>
       </c>
-      <c r="C2" s="5" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
-      </c>
-      <c r="D2" s="5" t="n">
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
         <v>10</v>
       </c>
-      <c r="E2" s="5" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>AB</t>
         </is>
       </c>
-      <c r="F2" s="5" t="n">
+      <c r="F2" t="n">
         <v>7044466345</v>
       </c>
-      <c r="G2" s="5" t="n">
+      <c r="G2" t="n">
         <v>15</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="5" t="inlineStr">
+      <c r="A3" t="inlineStr">
         <is>
           <t>2025-08-05</t>
         </is>
       </c>
-      <c r="B3" s="5" t="inlineStr">
+      <c r="B3" t="inlineStr">
         <is>
           <t>Test Item</t>
         </is>
       </c>
-      <c r="C3" s="5" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
-      </c>
-      <c r="D3" s="5" t="n">
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
         <v>2</v>
       </c>
-      <c r="E3" s="5" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>AB</t>
         </is>
       </c>
-      <c r="F3" s="5" t="inlineStr">
-        <is>
-          <t>7044466354</t>
-        </is>
-      </c>
-      <c r="G3" s="5" t="n">
+      <c r="F3" t="n">
+        <v>7044466354</v>
+      </c>
+      <c r="G3" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2025-08-28</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Test Item</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>10</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>ans</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>123466</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
         <v>20</v>
       </c>
     </row>
@@ -1679,7 +1759,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1726,12 +1806,16 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="D2" t="n">
         <v>16.75</v>
       </c>
-      <c r="E2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>comment</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1773,7 +1857,11 @@
       <c r="D4" t="n">
         <v>21</v>
       </c>
-      <c r="E4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1793,6 +1881,25 @@
         <v>51.43</v>
       </c>
       <c r="E5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>test5</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>6</v>
+      </c>
+      <c r="D6" t="n">
+        <v>15</v>
+      </c>
+      <c r="E6" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
